--- a/config/fuels_used_by_modellers before updates 2352025.xlsx
+++ b/config/fuels_used_by_modellers before updates 2352025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finbar.maunsell\github\Outlook9th_EBT\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6EAA7B-8282-4457-A79F-F63C8CA7057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9FB6D-4C22-40EA-BB32-CF4039B5931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DA73B7A-5DB8-461F-82E0-D287C45E52D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="90">
   <si>
     <t>FUELS</t>
   </si>
@@ -736,8 +736,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3387,7 +3387,9 @@
       <c r="F52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>18</v>
@@ -3414,7 +3416,7 @@
       </c>
       <c r="P52" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>15_05_other_biomass</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="15"/>
@@ -3556,7 +3558,9 @@
       <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>18</v>
@@ -3583,7 +3587,7 @@
       </c>
       <c r="P55" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_02_industrial_waste</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="15"/>
@@ -3924,7 +3928,9 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +3959,7 @@
       </c>
       <c r="P62" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>16_09_other_sources</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="15"/>
